--- a/3.安全建设-情况调研.xlsx
+++ b/3.安全建设-情况调研.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="758" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="758" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="调研介绍" sheetId="16" r:id="rId1"/>
@@ -1295,9 +1295,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="17.1851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1374,15 +1374,15 @@
   <sheetPr/>
   <dimension ref="A1:XEZ32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85454545454546" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="48.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="19.2685185185185" customWidth="1"/>
+    <col min="2" max="2" width="48.2685185185185" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:16380">
@@ -17789,7 +17789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:2">
+    <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -17902,16 +17902,16 @@
   <dimension ref="A1:XFB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
-    <col min="4" max="5" width="17.6363636363636" customWidth="1"/>
-    <col min="6" max="7" width="18.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="15.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.8148148148148" customWidth="1"/>
+    <col min="4" max="5" width="17.6388888888889" customWidth="1"/>
+    <col min="6" max="7" width="18.5462962962963" customWidth="1"/>
+    <col min="8" max="8" width="15.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:16382">
@@ -34330,15 +34330,15 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="29.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="25.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="14.3636363636364" customWidth="1"/>
+    <col min="1" max="3" width="29.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="25.7314814814815" customWidth="1"/>
+    <col min="5" max="5" width="14.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -34634,7 +34634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="28" spans="1:2">
+    <row r="58" customFormat="1" ht="28.8" spans="1:2">
       <c r="A58" t="s">
         <v>77</v>
       </c>

--- a/3.安全建设-情况调研.xlsx
+++ b/3.安全建设-情况调研.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="758" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="758" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="调研介绍" sheetId="16" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>为什么要调研</t>
   </si>
@@ -43,7 +43,10 @@
     <t>确定核心业务</t>
   </si>
   <si>
-    <t>技术细节调研</t>
+    <t>细节调研</t>
+  </si>
+  <si>
+    <t>调研安全细节，评估完成度，查漏补缺</t>
   </si>
   <si>
     <t>调研时间周期</t>
@@ -1292,12 +1295,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.1851851851852" customWidth="1"/>
+    <col min="1" max="1" width="17.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="12.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1332,35 +1336,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1374,26 +1381,26 @@
   <sheetPr/>
   <dimension ref="A1:XEZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85454545454546" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.2685185185185" customWidth="1"/>
-    <col min="2" max="2" width="48.2685185185185" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.4537037037037" customWidth="1"/>
+    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="48.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:16380">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -17775,108 +17782,108 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:2">
+    <row r="4" ht="28" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="2:2">
@@ -17901,43 +17908,43 @@
   <sheetPr/>
   <dimension ref="A1:XFB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="20.8148148148148" customWidth="1"/>
-    <col min="4" max="5" width="17.6388888888889" customWidth="1"/>
-    <col min="6" max="7" width="18.5462962962963" customWidth="1"/>
-    <col min="8" max="8" width="15.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="5" width="17.6363636363636" customWidth="1"/>
+    <col min="6" max="7" width="18.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="15.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:16382">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -34316,7 +34323,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -34334,165 +34341,165 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="29.3611111111111" customWidth="1"/>
-    <col min="4" max="4" width="25.7314814814815" customWidth="1"/>
-    <col min="5" max="5" width="14.3611111111111" customWidth="1"/>
+    <col min="1" max="3" width="29.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="25.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -34507,7 +34514,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -34555,37 +34562,37 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1"/>
     </row>
@@ -34615,10 +34622,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -34628,43 +34635,43 @@
     </row>
     <row r="57" customFormat="1" spans="1:2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="28.8" spans="1:2">
+    <row r="58" customFormat="1" ht="28" spans="1:2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:1">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:1">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:1">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:1">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:1">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
